--- a/lista_estudiantes.xlsx
+++ b/lista_estudiantes.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Edad</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cédula</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Andres</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9987</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hernesto</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tatiana</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Susana</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9951</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8523</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>